--- a/src/attributions/attributions_ig_traj_240.xlsx
+++ b/src/attributions/attributions_ig_traj_240.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
         <v>-0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
         <v>-0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
         <v>-0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
         <v>-0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
         <v>-0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
         <v>-0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
         <v>-0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
         <v>-0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
         <v>-0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
         <v>-0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
         <v>-0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
         <v>-0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
         <v>-0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
         <v>-0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT2" t="n">
         <v>-0</v>
@@ -1573,25 +1573,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2897392103334097</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.2170461487869008</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1237872241810881</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002640726557379566</v>
+        <v>-0.05975528358099093</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.2201138667216569</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1600,25 +1600,25 @@
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07601636494287699</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.04624854970930557</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003502770423282482</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.009882383994575949</v>
+        <v>-0.003803729843468771</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0.0054426775770867</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -1627,22 +1627,22 @@
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01787534542224489</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.0121931202114987</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.04165254864410468</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2175534460255163</v>
+        <v>-0.0868252484346145</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0.03073929221168106</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,49 +1654,49 @@
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05106295486669996</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.0382599538654256</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0866554241551203</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1775987124828697</v>
+        <v>0.1248757428227917</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.05272487440239207</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1328914429749632</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.04727546788309357</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.01797488881779936</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.07039780180739515</v>
+        <v>0.04069551459811029</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.1266174540529857</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
@@ -1708,76 +1708,76 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3210184327677516</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.2648216490784184</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1824600302126402</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0203608187594282</v>
+        <v>-0.158183454195903</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.4032229626462012</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1218945321532875</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.1258434913437113</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.07539211377779009</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.03727695723831416</v>
+        <v>-0.0321798712052718</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0.07420996449020013</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
         <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.07286117578499125</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.001813804961735719</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.07349906588403303</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.164476103045527</v>
+        <v>-0.02494621923470392</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.02298061902257294</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
@@ -1786,28 +1786,28 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.2006639391251508</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.07039851144054037</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.04424483380922263</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01582758969969647</v>
+        <v>-0.1132601381946213</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.1328434026368685</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
@@ -1816,22 +1816,22 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.1486749826443614</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.1073822586619718</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.04604676887042863</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.01163965119436934</v>
+        <v>0.03080327952085105</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.1152601678946842</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1840,28 +1840,28 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.01372554385284768</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.004952620690293392</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.01566999344668496</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1218464760414226</v>
+        <v>0.04683927353884149</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.01088647837865527</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
@@ -1870,25 +1870,25 @@
         <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.1306932888807086</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.08796629451604106</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.06173296428029972</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.07075240094648613</v>
+        <v>0.01803138483404039</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.1334773349378525</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>-0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.07327864988083628</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.05390966898013396</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01514147442691434</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.003916143106225531</v>
+        <v>0.03964686353397251</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.004301978598605613</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -1921,205 +1921,205 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.00369739346665378</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>0.01465169216944954</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.04303665824067242</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01919297428172722</v>
+        <v>0.1168675655337137</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.01375070556506886</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003461442532798683</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0.05133033603566994</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.006944054718735955</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1818935539684781</v>
+        <v>-0.01138238411469794</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>-0.01486296360789663</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.2397150113828058</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.1183834044830427</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.06343413227980875</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02391524815902546</v>
+        <v>-0.00657862766244103</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.124754724094843</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.05897166450039008</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.04773220213343761</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.07041393129653857</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.06250866171876925</v>
+        <v>0.03458485190971846</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.05692480113302847</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.1400097299669842</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.08614608822317865</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.05765275842173994</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.0314798259093658</v>
+        <v>0.03335915137871331</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.1202570701488062</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.114050588383389</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.07584601399976601</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.02681188499867708</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.0345836869915579</v>
+        <v>-0.06607827494170669</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.1369253727303383</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.03486239904295545</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1581160502589445</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02708731855701936</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.07809445799119549</v>
+        <v>0.05833573986616377</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.08684198627359421</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.05840377946767856</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.04502832762619102</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.02646702657407829</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.02892805697973632</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,49 +2711,49 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2443796781312416</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.06188241556675032</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0416195406317868</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07022708100090919</v>
+        <v>-0.00919528496563511</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02096794634652264</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07639621452562075</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.01583180676886485</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03023373067232729</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04530748312507874</v>
+        <v>-0.003870392348116805</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.01137817643241358</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2765,22 +2765,22 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01651956759199964</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.00221558817205783</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02383281658292466</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1915393995562217</v>
+        <v>-0.004864649138517006</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.001368053858590308</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2789,163 +2789,163 @@
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03398613418482031</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.0109584462755314</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04947746744196957</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03251846297851715</v>
+        <v>0.0228047992025442</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.0007665886333811035</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.08603490036146821</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.004387812711740875</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.03110776731993839</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.05404395714791983</v>
+        <v>-0.01112489320974974</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01606030600129673</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2216288256736328</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.08283945622608539</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.06557420498121751</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01166616653281044</v>
+        <v>-0.004261689772855511</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.005681785358982464</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.09111359850764048</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.02782589872503623</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.07016353214493255</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01685598691043936</v>
+        <v>-0.019549124877929</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.04848099779482846</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.05068803698686281</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.02899641128218291</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.05534183144080864</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1537814507120339</v>
+        <v>0.02612550003476191</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.004639947585217081</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1353378505067466</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.02863953808049267</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.02418783367138385</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.003360386455146912</v>
+        <v>0.005118974974840005</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.004552350786474342</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,103 +2954,103 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.09589360443039452</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01841412203212578</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.03277813151149461</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.03051726000839287</v>
+        <v>-0.002118904109182733</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.01906843224728092</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.004747697362362452</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.00527981981179559</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.001023366465371935</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.120979627974111</v>
+        <v>-0.004108655922119841</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0.0007809106633622541</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.08650105553708939</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01412110748908113</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0395340918200094</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.0223585199810372</v>
+        <v>0.003638293946648316</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.01873158737210883</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.01222127688578981</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.004318032461428666</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.02671894571923816</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.06035396153458266</v>
+        <v>0.01812079702664662</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.003546490182692985</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
@@ -3059,220 +3059,220 @@
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.04166246128997252</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.005923831458935125</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.003806171827302846</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02607603158630026</v>
+        <v>-8.95803137745175e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.006199084901461501</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.01624335458970036</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01775048927623112</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.005160647224338848</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.103950626750572</v>
+        <v>-0.03205357836121387</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.0005930411331872502</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1603707104400658</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01384135386648185</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01653532132745807</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.06580732609783388</v>
+        <v>-0.001024316817494005</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01136739744581012</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04540518874748</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.0151176610700421</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.03703162317873</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1047309004595422</v>
+        <v>0.008658470596225855</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.004997676992950147</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.08880383282417229</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01643971944646957</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.03966570896421538</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.003660241967957418</v>
+        <v>0.004044660982815073</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.02020196961973531</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.09952409288110781</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.0001931502163546776</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.03285887804914131</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.029890366784811</v>
+        <v>-0.02621339499649919</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01979613233959642</v>
       </c>
       <c r="FM5" t="n">
         <v>-0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.005731757464339883</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.001545785384382836</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0137911733325212</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.0005806611077610794</v>
+        <v>0.0004305234250826192</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.008614041637559848</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.07695162260326749</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02722373650709928</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.000244303037246074</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.006754551429212806</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3571964534759505</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1219184922435678</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.08157853419189925</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04740556047298452</v>
+        <v>-0.00341922424569569</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.07554215579938897</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,25 +3304,25 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1594135436082279</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.04787212156262561</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.05891178412214416</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0523064815739863</v>
+        <v>-0.001065919297129571</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.04436512974791736</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,109 +3331,109 @@
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03449181415155576</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.005346369061070973</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.05115709390807478</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1990070028282377</v>
+        <v>-0.01565563709737232</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.001837912597843148</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001732685649037264</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.0198400566526704</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0179481076107293</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.02556330470670489</v>
+        <v>0.02141697196959443</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.003131864756851275</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1205338854433557</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.02090540267192832</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01852339857580453</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01328952912110581</v>
+        <v>0.005648328108760059</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.03744228037387603</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.3030440000294274</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1430254650529754</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1222038020257022</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.007466708243175809</v>
+        <v>0.001972021399295735</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.0804899250187244</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
@@ -3442,49 +3442,49 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1224723581356897</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.05045559657957903</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.08881296179477455</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01297015078988751</v>
+        <v>-0.03946647271976187</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.07253849888305285</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.05385667795050168</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.03371498684132956</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.05223055576819632</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.1893143282054548</v>
+        <v>0.01956870652075751</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>-0.003965689451432413</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,52 +3496,52 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1830197751026566</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.05116806930114831</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.03570055344680864</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.02575469473740205</v>
+        <v>0.001303406701031689</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.02388984077286906</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.1410207622779684</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.03740482327755392</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.04560684663572077</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02946410570723703</v>
+        <v>-0.006396417242737202</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.03789734780422618</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,49 +3550,49 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.0009690863513643507</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.006160283191042309</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.003739524559500977</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.1253873916297494</v>
+        <v>0.0132598649037093</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.002855032719408294</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.1223465352199034</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.03239953157570981</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.04760003208168836</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.04096900166939995</v>
+        <v>-0.0004151191401548538</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.04071832288578545</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3604,52 +3604,52 @@
         <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.02653271979025268</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.009980225018701914</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01212004844256664</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01339962777497697</v>
+        <v>0.007550856845062566</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.001557597627415997</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01949223800534091</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.00469659320587397</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.00726388268527592</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.07243360400073552</v>
+        <v>-0.003814337520042726</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.01283373467887755</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,103 +3658,103 @@
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01602954938886776</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.02192092560421685</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.01247560389200329</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.09686961894869771</v>
+        <v>-0.03172828514516485</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.003640348428581356</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.2184062155559317</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.0329163327992961</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.04318166884575222</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.08453947599939271</v>
+        <v>0.002021538045435149</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.02793303738141083</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.04790802551359048</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.0322274775026795</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.05345162449311577</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0658090755014635</v>
+        <v>0.007628490835113849</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.02848116422246836</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.1161168747254767</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.03338839772884131</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.04601623737437191</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.01959971531726523</v>
+        <v>-0.001829895696801994</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.03673689978036491</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3766,67 +3766,67 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1040559813221616</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.008528316195541794</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.02177621707360589</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.01061921494717007</v>
+        <v>-0.02280911646014498</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.0214696168193547</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.01551502354716688</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.007765853870291177</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.02023115543267585</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.000213401242859496</v>
+        <v>0.001764752710660483</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.02597642590847323</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.08518765387220815</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02232209276413775</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0.029020731804054</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>0.006911032116960865</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
@@ -4418,52 +4418,52 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3894734241585813</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.2197667908849288</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.07426404926186254</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.06763846107580557</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01716724259657751</v>
+        <v>-0.04778675991960982</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.06871271768981697</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007773561478069585</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3146297377516387</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1277587378901571</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06026248221116847</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.05462433734185475</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07039852138364495</v>
+        <v>-0.02946027265860778</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.04317462987899704</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03754573993183542</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,79 +4472,79 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03553706990561663</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.04937144377824131</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.06910041400383045</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.01514882904960532</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1375948992296131</v>
+        <v>0.02754256094888084</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.02309280354320864</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.08391014517427281</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0160732902522223</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.01840914406672245</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.06219954657915922</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.04367134585154401</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02258643338203038</v>
+        <v>-0.00125026988709313</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.0119005617031316</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1042866156643684</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1351666068871602</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.001656097944060184</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.001257360014444757</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.03113131002247291</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01702467520854197</v>
+        <v>-0.01359647667537389</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.02883069633471027</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01451022695749705</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4553,52 +4553,52 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.287868414903938</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.3244104642102168</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.08123205228621527</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.009397941958847021</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.04118609929523001</v>
+        <v>0.04677756664568994</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.04363053488610782</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06176938233476643</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1429619232176101</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.02025646108011033</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.04634998898008732</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.04292178833260405</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.02442988920868757</v>
+        <v>-0.09432179855542493</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.1236468880906035</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.02950121885783337</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,52 +4607,52 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.07100449268167539</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.07009425816355222</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.02976177342854735</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.04521396862708939</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1426151302332813</v>
+        <v>0.06597463524192362</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.01369774018282329</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.03717796895477991</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1780754545648006</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1198428804506877</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.0245764533828484</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.02495097964529424</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01898014229142125</v>
+        <v>-0.01273602252141491</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.02348861010011724</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01567601538489004</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,52 +4661,52 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1408876895988286</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.05866956524858317</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.02821640536773921</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.006510601720493901</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01584368302547551</v>
+        <v>-0.001319947976155638</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.04405373934626156</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.01411085258256688</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01042942905267929</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.02195677800762075</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.004147223427160496</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0.03441075806007817</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.09255018933090532</v>
+        <v>-0.01931733497489368</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.0164019664527915</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.04340288429330554</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,106 +4715,106 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1280767319683462</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.05104901735226843</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.03173130963840961</v>
+        <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.02359816977854992</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.03754569755521588</v>
+        <v>0.004730084119904106</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.05180191264958028</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.005003988195214515</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.03720606628627656</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.01321611014989833</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.013944300115888</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0.07826675187084432</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.00486237687572724</v>
+        <v>-0.01561664936553353</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.003009584250383389</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.01169311322994139</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.02931559116006685</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.03798320532819007</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.0131669178356627</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.02724777894867367</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.07026164616006486</v>
+        <v>0.0227020118237608</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0.02653254520503731</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.04070746262271925</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.02159463924479228</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.006054731141806383</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.02362149030214687</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.002795734057268609</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01971182162425927</v>
+        <v>-0.03584555947100912</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>0.00258541826303072</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0.0005325539411863283</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4823,174 +4823,174 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2353791122733407</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.08593620734471746</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.02715728532773666</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03471547948101402</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03584004335961616</v>
+        <v>0.0367353333852423</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.008353643140979465</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.05890269447499494</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.02749475891562278</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03584935300058535</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.02216606363532462</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.0003255704418690113</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.06906123074371137</v>
+        <v>0.004785980301531378</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.06831097152479307</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.01055470040263655</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1239613149745439</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.04709916610512214</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.03343599932546917</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.00705408079461627</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.01786454949279402</v>
+        <v>0.01414332293081877</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.04210197371695123</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.004912643259160531</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.129165142767406</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.03531574651317242</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.04409563523404329</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.03391435740103591</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.07611754536469734</v>
+        <v>-0.003532563844474296</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.00800320829410152</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.04671515450081004</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.01958073145230019</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.006610866519397472</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0130704187557656</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0.01631024947911528</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.000553830168897786</v>
+        <v>0.006098666960557544</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.0003246674849548178</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0.01054057427774778</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.1057768235942427</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.03548492396418154</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.03344938034893805</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.02308780334112119</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.001559574311184672</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02421030730961945</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5556,22 +5556,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2976939920990362</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.6333321328806398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4283919130229661</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1968549102480958</v>
+        <v>0.1440645318562985</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.9478170162920985</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
@@ -5580,55 +5580,55 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1534210465222192</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.2768047235892421</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3519850730418977</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004632221334735121</v>
+        <v>-0.04714759552105241</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0.6130080528745286</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0019193466120251</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.08987364958049784</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1119833019531931</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1562206621673324</v>
+        <v>0.09929075318987055</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0.01322540642381054</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -5637,103 +5637,103 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.01249523952865626</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.2292662844646398</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.006742590781162095</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1749390127329755</v>
+        <v>-0.009041921356546138</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.1794684588853131</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.09616926566632969</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.1023697505229313</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.07416314053100354</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.0009822936277567203</v>
+        <v>-0.133995609998641</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.2848560101649846</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.1715522932470803</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>-0.3965576578619361</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.3126639074177077</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.02288282204965053</v>
+        <v>0.3715169595648701</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0.898446928044848</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.08251884519014528</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.407520166372013</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1633608686666901</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.2744901627762231</v>
+        <v>0.1853226290135963</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>0.1937053163495445</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
@@ -5742,82 +5742,82 @@
         <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.06155265750719189</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.1100656542514048</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.09415384871414736</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1978043249536536</v>
+        <v>-0.1007975938249138</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.003827582056926658</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.1505837847656022</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>-0.2135037216207077</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1389792690886777</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.08222621082275106</v>
+        <v>0.1011905607977777</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>0.3343115544923815</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.1266965159104888</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1917405269793536</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.0980137313692121</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02063176192343275</v>
+        <v>-0.01392885338782887</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>-0.1923463616915325</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>-0</v>
@@ -5826,25 +5826,25 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.01212312250646476</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>0.01870983651228235</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.02452783106178262</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.07738889833669417</v>
+        <v>-0.2128664555115923</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>0.1178104982967436</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
         <v>0</v>
@@ -5853,22 +5853,22 @@
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1165569793258631</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.1588111466996637</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.08709191348721186</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.06466989021077314</v>
+        <v>-0.06267377383661794</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0.2316167622665714</v>
       </c>
       <c r="DB10" t="n">
         <v>-0</v>
@@ -5877,109 +5877,109 @@
         <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.001069083972522888</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.01400185717823196</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.01513016211192146</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.02506934808906278</v>
+        <v>-0.2584495789923995</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.03326402031973864</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.05872907287671894</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.1236803356152932</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0802518056321849</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.04364083549803727</v>
+        <v>0.1041139570545863</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0.06952409350688951</v>
       </c>
       <c r="DT10" t="n">
         <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.0213862738525683</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.1309708494361494</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.00871578524105839</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02329924602668415</v>
+        <v>0.2929865533099328</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.1000511045917228</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1618779725416182</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.0793975541923761</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.1334616211209032</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03199432208029371</v>
+        <v>-0.1459935794740662</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>-0.1644080759119566</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,22 +5988,22 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.03510897841646445</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.1711079067931622</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.09418443610349803</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02488434240948258</v>
+        <v>0.08809072694169402</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.006277793455702759</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
@@ -6012,25 +6012,25 @@
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.1188106784419728</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>0.178110070323006</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.08043861463272348</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.04001872201943856</v>
+        <v>-0.05886863043145255</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>-0.2320116557213362</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,25 +6039,25 @@
         <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.06657644649879688</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.01800079849460328</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.09936458073260156</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.07084134426401453</v>
+        <v>0.01501975987369351</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>-0.2392463723158225</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6066,43 +6066,43 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.03129995124577476</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.008423739451268418</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.06986173990598038</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03434884094602546</v>
+        <v>-0.1484080108072988</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>-0.3303382599966145</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.001344693916485608</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.1283005601406513</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.1028629472365149</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>0.0872130603933849</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,181 +6128,181 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1333747704097537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4455027563231861</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06850930712184511</v>
+        <v>-0.006346353310403234</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.09238705329937291</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1778839767991943</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1074339899046069</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3922442505988509</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.189002878414988</v>
+        <v>-0.004922750975620268</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.06333348995726427</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1263701966747486</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.007850565653307266</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01772792607624474</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1008593397685461</v>
+        <v>-0.01521090670274852</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01571716032506547</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.044741336938442</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.008316099349665495</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.09706068770575287</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05548419691872163</v>
+        <v>0.01235721675422421</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0.01731685655992342</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1374302928097169</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0</v>
+        <v>0.006742006836319209</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1291535288588</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.09218806108207982</v>
+        <v>-0.008719181063579343</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>-0.04350250535089837</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.01933278950454552</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>0.1091571088354197</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.249471145317441</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.09574553937499629</v>
+        <v>0.00885172471062848</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>-0.06423155134413359</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.1707102080835318</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.05188276019307981</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.206880076789093</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.04634930023775115</v>
+        <v>-0.02485971350127424</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-0.05555194651347658</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,79 +6311,79 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.04404251121565508</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.03996804065148661</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.08162534881378339</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1719090023421228</v>
+        <v>0.01419698175298306</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.01794783304865634</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.08338776417722117</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.05605944782850338</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1624535142455711</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.06290800927972427</v>
+        <v>0.002626131867736737</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.02406693501916508</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.1373588757568801</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.02983591228312463</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.1115500504748166</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.08146744889806677</v>
+        <v>-0.00271046045514352</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.02423289219041722</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -6392,52 +6392,52 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0599196269649412</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.008574699962323611</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.01551455659530199</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.02791156284375267</v>
+        <v>-0.00351575685253533</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.008853434160957165</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0.03814895723484645</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.0223002523975217</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08945003043989723</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.0377551964359381</v>
+        <v>-0.0022845470218262</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02978972586931386</v>
       </c>
       <c r="DB11" t="n">
         <v>-0</v>
@@ -6446,25 +6446,25 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.03934441329285879</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.004042153493190569</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.007857447076172155</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01067232944355162</v>
+        <v>0.008102356115746018</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.0126818434258586</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,25 +6473,25 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.003247592325955241</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.0117108452349807</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.0003906722658695017</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.08005268670390521</v>
+        <v>0.007697112199631012</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>0.004775339957483572</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6500,25 +6500,25 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0.04114301262127989</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.03625581567067365</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.06205512149420309</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.04258187032714102</v>
+        <v>0.009218750434680942</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.01784494534518465</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,216 +6527,216 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.02464980419642658</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.02071768898491964</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.09520815606770321</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.1465056867727044</v>
+        <v>0.003104876901817064</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.0156409895730309</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.04477456011984222</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0.007571463270012959</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.0597402668402488</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.009306278829577146</v>
+        <v>-0.003932367996226053</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.001880821807891714</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.1422410639947215</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.02198731072545749</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.103711698103137</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.05047673508571648</v>
+        <v>0.001206428374172076</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.03021805443850384</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.07911827890320214</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>0.003380217103684103</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1586414091403459</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.03107294915178276</v>
+        <v>-0.01607362177234817</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0.02992896954521935</v>
       </c>
       <c r="FM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN11" t="n">
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.007367387139615543</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.0196555951489811</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.04910073758489791</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.152952034806154</v>
+        <v>0.02443977178562185</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0</v>
+        <v>-0.0008763209283351258</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0.01104275315641465</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.01311891922634132</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.08657819741950278</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0.02613882249697758</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.1372609338421757</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3523911999824564</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>-0.3595239659945326</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06896341485585823</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.1918948061953517</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04179768137887081</v>
+        <v>0.217961686878524</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3453462073638574</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.290603672443886</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08374360248279883</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.2105292914795927</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1663321777453554</v>
+        <v>0.2389788726610567</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -6748,19 +6748,19 @@
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03033716766846816</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>-0.1015994294792082</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.04444023883544843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.01694052201451101</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1598810086842528</v>
+        <v>-0.04183647001244236</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -6769,31 +6769,31 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.008241383549450209</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.1524543817303817</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.03850594387392655</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.05730643156480612</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04059568475258293</v>
+        <v>-0.03112473842292171</v>
       </c>
       <c r="AG12" t="n">
         <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -6802,103 +6802,103 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.08815623501662426</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.03530618224662264</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.0162134653392337</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>0.04496369266459647</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03734733775697516</v>
+        <v>0.07773047799036843</v>
       </c>
       <c r="AP12" t="n">
         <v>-0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2415497702631371</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0.2823760744888923</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.06337762774898471</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.009386233642463646</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.02625685198906587</v>
+        <v>-0.01912585227520819</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.07237959867221833</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.01270378074326078</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02349220264695544</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.1947370835745189</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01465517591845241</v>
+        <v>0.2801864307627785</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.02975666724099972</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0.09746939744970234</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.023556050172001</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0.03966367599017617</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1104800990371795</v>
+        <v>-0.1006469971429728</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
@@ -6910,106 +6910,106 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.206379348938076</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0.2214552231237848</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.0392223896525816</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.001954980983664282</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.01237019941433125</v>
+        <v>0.04295490695730891</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.09287338081992527</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>0.09111559250187642</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01292332627038144</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>-0.04630099311145542</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02475136666717923</v>
+        <v>0.002501104486842532</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.02038052515991143</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.03036194770759994</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.02010008880114298</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.06177633397348618</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.03974256285207351</v>
+        <v>0.08264093758651204</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.0816216121270182</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>0.08768772856841285</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01741494941699982</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-0.06427216599515229</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02036821031609738</v>
+        <v>-0.003251567564702623</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
         <v>-0</v>
@@ -7018,19 +7018,19 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.004504092938848324</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>0.1674791704590838</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.01813976193889911</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0.05120534549396998</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0006652045135083585</v>
+        <v>-0.008569236863323306</v>
       </c>
       <c r="DJ12" t="n">
         <v>-0</v>
@@ -7045,19 +7045,19 @@
         <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01729706967872122</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.0444027720261606</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.02284258853159532</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.03951346969164644</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.008371139457940017</v>
+        <v>0.06924336164510286</v>
       </c>
       <c r="DS12" t="n">
         <v>-0</v>
@@ -7066,25 +7066,25 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.003145912547565781</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.1020258637098203</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.01367594502879429</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.09150862549650279</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0430667837140319</v>
+        <v>0.05065278254419057</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,22 +7096,22 @@
         <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.133581660534246</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>0.05382829121024003</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01704391174316665</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>-0.04169300521635982</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.04885858138656598</v>
+        <v>-0.1036737619249987</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7123,22 +7123,22 @@
         <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.04097449934468506</v>
+        <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.0004639062558998706</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03043757177466721</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.03281302057021471</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01581090735980393</v>
+        <v>0.02831961310528018</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.08070939851674289</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>0.09068410370469708</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01239745749045804</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0.05954802278726774</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.01224347704352122</v>
+        <v>-0.005773934316406578</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
@@ -7177,79 +7177,79 @@
         <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.09281832798466221</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.05169731641457217</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02351977810960191</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.08810583646586569</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03208813366318363</v>
+        <v>-0.04179208425015184</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.005191092521853927</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.02522769737549652</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02065180664654824</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.03322027598198776</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.01348358904032521</v>
+        <v>0.009205554983633504</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.06631178635925224</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.05225639164725931</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.03518245976171981</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>0.06616922842704878</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE12" t="n">
         <v>0</v>
@@ -7263,160 +7263,160 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2714067643758337</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.4870340664615532</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1455723229004728</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03586069398986891</v>
+        <v>-0.1171038079518017</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.4436249964418046</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2733076075981725</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.4564442769178869</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1624277012435156</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.08273792125538318</v>
+        <v>-0.05570592675916219</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.4518573142021146</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.008954873075792421</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.03678668043720053</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.03836216179904126</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.08797567655804962</v>
+        <v>-0.08439262822239568</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.01567068857811676</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01340254325220028</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>-0.02363507836424826</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.006336328411089154</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04944760578558498</v>
+        <v>-0.01012467495818293</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.03447034086699631</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.05589601734656249</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.08346482370634739</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.01691581698354639</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.03780649541021868</v>
+        <v>0.001425139274130004</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.08288815890890448</v>
       </c>
       <c r="AQ13" t="n">
         <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1500266940496688</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.4142823062989933</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.07729613851105492</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.01923626526822604</v>
+        <v>-0.07056162875261536</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.2195072107427806</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7425,22 +7425,22 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0604596999840659</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1084983479853896</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.05866889128964646</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.07372973262872869</v>
+        <v>-0.1511296373082835</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.1920463743209763</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7449,52 +7449,52 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.01065681270443701</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1430673738132707</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.04791512450385455</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1001646223654745</v>
+        <v>-0.003506804419984493</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01774829638850664</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.1386825729418612</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.2174578064331273</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.03884322875779642</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.007487444837952052</v>
+        <v>-0.07027843473932166</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1317131469424722</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7503,25 +7503,25 @@
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.07003434321246337</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.08493679991571336</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0350254086187342</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.005891865320836681</v>
+        <v>-0.005132296706541574</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.107260316561954</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,49 +7533,49 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.01116511190832582</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>1.411111576022698e-05</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0.005253336738184716</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.04709194035472856</v>
+        <v>0.01656313510158922</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.02173635870421967</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.06174685538066453</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.06794519309467903</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.03870409914600666</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.01982883150617436</v>
+        <v>-0.002517826506811512</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.1129463761574095</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.03116748670072723</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.04002326517017469</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.02940341820821472</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01843815763845517</v>
+        <v>0.0444566794875837</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.001614683906987056</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,106 +7611,106 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01072828974938054</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>0.006081052987154392</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.009720439196999244</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0209866850076461</v>
+        <v>0.03351720870604942</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.00651404814989466</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.01438501966824475</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.05777594466092893</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.02172884913678988</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.0132618380024598</v>
+        <v>0.01639577769065341</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.05440360332127209</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.1077872425324581</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.09693440032671177</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.03919551208102516</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.005328860800526965</v>
+        <v>0.02439302318152298</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.1195640580710318</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.04804444759808291</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.02990216264525762</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.03901763000119844</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.002457470554809723</v>
+        <v>-0.01296633880913288</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07094629067274934</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7719,25 +7719,25 @@
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.06432189949483554</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.06543195927951648</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.03352929395248684</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.008246082652946116</v>
+        <v>0.006229404879093165</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.1024537790435004</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7749,79 +7749,79 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0328326701456003</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.002535719417640378</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.03960553809179333</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02562750053489276</v>
+        <v>-0.008508884200727705</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.05172385674770193</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0001596378971706421</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>0.004963051982165477</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.02693253112293839</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.006327585439623186</v>
+        <v>-0.008810654514323803</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>0.03438754936987051</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0372858696279504</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.04462418624405818</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.01964902975196543</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.05108333755087999</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,22 +8970,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2092555256636294</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.1555227955103367</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06995427573767635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05739924232357475</v>
+        <v>-0.08280241633837762</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.07228254118439849</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -8997,133 +8997,133 @@
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2032031164877519</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1280013609926359</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07342525722016756</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01881385010078339</v>
+        <v>-0.05768573777505789</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0.07598714090533507</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.005925257005405446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.01378244307605709</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02029985355908337</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.06038164376338419</v>
+        <v>-0.004451178988662641</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.009296517155136153</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.00474342197413865</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.004937052603166965</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003150675559788919</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03030016516921492</v>
+        <v>0.01397086337945391</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.01246458326384953</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03224701179088503</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.01048426267962558</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.008800493304057098</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.01978541408020478</v>
+        <v>-0.008843058167262783</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>-0.01472490147678882</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.09470419513085324</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1072825700670186</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.03466692001246453</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.01047166037388737</v>
+        <v>-0.02880010261672456</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>-0.02119212093019258</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
@@ -9132,22 +9132,22 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03392770264770475</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.03149636970574076</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.0312425067020119</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.05272762431173625</v>
+        <v>-0.05775229627875221</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>-0.05909104473704765</v>
       </c>
       <c r="BI16" t="n">
         <v>0</v>
@@ -9156,52 +9156,52 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.01004758422954378</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.03556435611813727</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.03136522446729834</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.05762484756504983</v>
+        <v>0.0160377211932141</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.01704690532514525</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.08727001366882281</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.05103091105067987</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0.01434265502184255</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.02274915151628361</v>
+        <v>-0.01218046926464564</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0</v>
+        <v>-0.01384008897907786</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
@@ -9213,133 +9213,133 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.04996009371413365</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.02622308846222178</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.01916443306842008</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.004217207391600208</v>
+        <v>0.007127736093176795</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.01772200217820961</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.008361984912041718</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0.0008607606247808709</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.005310143289268811</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.04320140206811009</v>
+        <v>-0.007075855757484145</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>-0.01179765717120735</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.04568746562739772</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.01997228527183853</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.02236679920305712</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.01643140861784035</v>
+        <v>0.006098553888960175</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0.01817422480022265</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0.03072380718267132</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.03236358042313904</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.02017779473866237</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.01876615173091657</v>
+        <v>0.05139714038333401</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0</v>
+        <v>0.01369322867674388</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.009512690706736576</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.005787316285419271</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.008085557643961294</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01229617762981887</v>
+        <v>0.01937102480609069</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>-0.009748317299426336</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
         <v>0</v>
@@ -9348,25 +9348,25 @@
         <v>-0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0.01220476749076608</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.02951577427682513</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.008182208027690792</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.007686764775589467</v>
+        <v>0.01498315768491325</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0.01825960522851271</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
         <v>-0</v>
@@ -9375,49 +9375,49 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.07466337058275521</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.0315053328593496</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.01826245205985942</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.007883362227836895</v>
+        <v>0.00944317674849344</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>0.01334605781814872</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.03594307345005075</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.01243019102766987</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.03112116527872794</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.002246135517427202</v>
+        <v>0.002243096035829807</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0</v>
+        <v>-0.01165242559899074</v>
       </c>
       <c r="EU16" t="n">
         <v>-0</v>
@@ -9426,97 +9426,97 @@
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.04609332239012731</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.0208915055260241</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.01825583707176345</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.009044521283204217</v>
+        <v>0.009264301360075101</v>
       </c>
       <c r="FC16" t="n">
-        <v>0</v>
+        <v>0.02170654796978215</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.02240851692946044</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.01511337365004362</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.01631843673574277</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
         <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.02605618111617304</v>
+        <v>0.0113268961668335</v>
       </c>
       <c r="FL16" t="n">
-        <v>0</v>
+        <v>0.01985781488408164</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>6.877014744184186e-05</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>7.644719732458803e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.01299729352922879</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.002642398009516363</v>
+        <v>-0.001509859052916248</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>0.01880918805336776</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.02324626247009449</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>0.001820653164314721</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.00405279887161444</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
         <v>-0</v>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0</v>
+        <v>-0.005457780234660795</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
@@ -9539,103 +9539,103 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0</v>
+        <v>0.1266462604957166</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2574117760980887</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4951432500059961</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1351941507545215</v>
+        <v>-0.0359596502453245</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>-0.1458807809284861</v>
       </c>
       <c r="G17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0</v>
+        <v>0.1005695273084039</v>
       </c>
       <c r="K17" t="n">
         <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.2348286332002927</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4623139546353567</v>
+        <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1333355898686648</v>
+        <v>-0.002737779122467324</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.0997243053547566</v>
       </c>
       <c r="P17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R17" t="n">
         <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0.01760666690443216</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.00727118115706724</v>
+        <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0003759573960237542</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.1833564385629497</v>
+        <v>-0.03898100455986269</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-0.02367567826519899</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.01516222809156062</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.06800700434651451</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.08084943172907946</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02662732033895885</v>
+        <v>-0.02746700724001907</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>-0.02875747820365326</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
@@ -9647,52 +9647,52 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>0.02170311454758471</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.04680454798613666</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.1130841665430811</v>
+        <v>-0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.02561028891109931</v>
+        <v>-0.007094937415410008</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>-0.01299687962429524</v>
       </c>
       <c r="AQ17" t="n">
         <v>-0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.08472652476482592</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.1707642212086706</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1656544980421544</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.09166778546295208</v>
+        <v>-0.1007914678233191</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0</v>
+        <v>-0.08600565149370705</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA17" t="n">
         <v>0</v>
@@ -9701,76 +9701,76 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>0.01499549256361632</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.03737641349266694</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.2326916093045944</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1372212740804411</v>
+        <v>0.01190784752073141</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>-0.04702454220862393</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
         <v>-0</v>
       </c>
       <c r="BK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>0.007487808577764449</v>
       </c>
       <c r="BM17" t="n">
         <v>-0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.1104398967228304</v>
+        <v>-0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.02679272737508455</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.1286414600365519</v>
+        <v>0.003610416424803363</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0</v>
+        <v>0.008104688305153049</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>0.03643594286452657</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0.04167539533017816</v>
+        <v>-0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.1387129344300701</v>
+        <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.007310758904751065</v>
+        <v>-0.03598242985426318</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>-0.06421245250715174</v>
       </c>
       <c r="CA17" t="n">
         <v>-0</v>
@@ -9779,55 +9779,55 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>-0.02249073403637856</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.06623082312647229</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0.1445492662415139</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.05133294973741546</v>
+        <v>0.01066464430794283</v>
       </c>
       <c r="CI17" t="n">
-        <v>0</v>
+        <v>0.04343561869056956</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0</v>
+        <v>0.004126862283695319</v>
       </c>
       <c r="CN17" t="n">
         <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>-0.08538116883641726</v>
+        <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0.09947630025185149</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.127802452872452</v>
+        <v>0.06820944344543946</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>0.001346799260798693</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
         <v>-0</v>
@@ -9836,49 +9836,49 @@
         <v>-0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0</v>
+        <v>-0.02108001772460196</v>
       </c>
       <c r="CW17" t="n">
         <v>-0</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.05211665555953089</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0.1148536043386383</v>
+        <v>-0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.03048712678041677</v>
+        <v>0.01460815439289092</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0</v>
+        <v>0.03937246904179714</v>
       </c>
       <c r="DB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0</v>
+        <v>-0.0001534932277220459</v>
       </c>
       <c r="DF17" t="n">
         <v>0</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0.02467444736457463</v>
+        <v>-0</v>
       </c>
       <c r="DH17" t="n">
-        <v>-0.003217879045790379</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.2073888326742129</v>
+        <v>0.03079357996395915</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>0.001550474019576347</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
@@ -9887,223 +9887,223 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0</v>
+        <v>-0.0005372762060466832</v>
       </c>
       <c r="DO17" t="n">
         <v>0</v>
       </c>
       <c r="DP17" t="n">
-        <v>-0.06534010604730481</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>-0.02686210363253865</v>
+        <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.1827325466944895</v>
+        <v>0.03730876190525402</v>
       </c>
       <c r="DS17" t="n">
-        <v>0</v>
+        <v>0.01723860783134225</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW17" t="n">
-        <v>0</v>
+        <v>-0.008746059748456648</v>
       </c>
       <c r="DX17" t="n">
         <v>0</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0500627041745491</v>
+        <v>-0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0.08737342987277766</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.009451038654432383</v>
+        <v>0.01650795672862657</v>
       </c>
       <c r="EB17" t="n">
-        <v>-0</v>
+        <v>0.03860945368572078</v>
       </c>
       <c r="EC17" t="n">
         <v>-0</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>-0.02203262574153988</v>
       </c>
       <c r="EG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.08275203538975351</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0.2260849742496362</v>
+        <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.04429082766809816</v>
+        <v>-0.003408451035381646</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>0.04728923408716374</v>
       </c>
       <c r="EL17" t="n">
         <v>0</v>
       </c>
       <c r="EM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN17" t="n">
         <v>0</v>
       </c>
       <c r="EO17" t="n">
-        <v>0</v>
+        <v>-0.01277627041603102</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0.04265394756357874</v>
+        <v>-0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.05416623275960154</v>
+        <v>0</v>
       </c>
       <c r="ES17" t="n">
-        <v>-0.04216511085195584</v>
+        <v>0.02803751493072065</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0.002817743768328517</v>
       </c>
       <c r="EU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
         <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>0</v>
+        <v>-0.01808398236400945</v>
       </c>
       <c r="EY17" t="n">
         <v>0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.05107478197386544</v>
+        <v>-0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0.1144026626453177</v>
+        <v>0</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.04877779595791193</v>
+        <v>0.02408577528846209</v>
       </c>
       <c r="FC17" t="n">
-        <v>0</v>
+        <v>0.04115578127544132</v>
       </c>
       <c r="FD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0</v>
+        <v>0.007376195651755181</v>
       </c>
       <c r="FH17" t="n">
         <v>-0</v>
       </c>
       <c r="FI17" t="n">
-        <v>-0.1116115321626685</v>
+        <v>0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.1074078291263656</v>
+        <v>0</v>
       </c>
       <c r="FK17" t="n">
-        <v>-0.02018070979622351</v>
+        <v>0.01202097803954294</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>-0.002121784118489793</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0</v>
+        <v>0.0006546982649096399</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR17" t="n">
-        <v>-0.02653291952247257</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.004773574883488056</v>
+        <v>0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0001651128614074816</v>
+        <v>-0.0006216824476783274</v>
       </c>
       <c r="FU17" t="n">
-        <v>0</v>
+        <v>0.01139849522618542</v>
       </c>
       <c r="FV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>-0</v>
+        <v>0.00460258118434362</v>
       </c>
       <c r="FZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA17" t="n">
-        <v>-0.04200879159359635</v>
+        <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.0126521577998784</v>
+        <v>-0</v>
       </c>
       <c r="GC17" t="n">
         <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>0.01054367872908787</v>
       </c>
       <c r="GE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF17" t="n">
         <v>-0</v>
       </c>
       <c r="GG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
